--- a/Excel/xqf131/xqf131CooperativeAntColony2exp3.xlsx
+++ b/Excel/xqf131/xqf131CooperativeAntColony2exp3.xlsx
@@ -458,10 +458,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.239701809000508</v>
+        <v>0.2299933480007894</v>
       </c>
       <c r="D2" t="n">
-        <v>1538</v>
+        <v>589</v>
       </c>
     </row>
     <row r="3">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>8.858340478000628</v>
+        <v>0.508157368000866</v>
       </c>
       <c r="D3" t="n">
-        <v>1538</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4">
@@ -486,10 +486,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>10.84668500600083</v>
+        <v>0.7704462230003628</v>
       </c>
       <c r="D4" t="n">
-        <v>1538</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5">
@@ -500,10 +500,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>13.5902928290011</v>
+        <v>1.118740082000841</v>
       </c>
       <c r="D5" t="n">
-        <v>1538</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6">
@@ -514,10 +514,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>16.77101129700077</v>
+        <v>1.424478153001473</v>
       </c>
       <c r="D6" t="n">
-        <v>1533</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7">
@@ -528,10 +528,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>20.45140098500087</v>
+        <v>1.722697548001634</v>
       </c>
       <c r="D7" t="n">
-        <v>1531</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8">
@@ -542,10 +542,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>24.5111977090005</v>
+        <v>1.961788206001074</v>
       </c>
       <c r="D8" t="n">
-        <v>1522</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9">
@@ -556,10 +556,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>28.26339040500034</v>
+        <v>2.243641369001125</v>
       </c>
       <c r="D9" t="n">
-        <v>1522</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>32.45322152000017</v>
+        <v>2.531851822001045</v>
       </c>
       <c r="D10" t="n">
-        <v>1522</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11">
@@ -584,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>34.54262033300029</v>
+        <v>2.855867763000788</v>
       </c>
       <c r="D11" t="n">
-        <v>1522</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12">
@@ -598,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>38.37667774600004</v>
+        <v>3.183650589000536</v>
       </c>
       <c r="D12" t="n">
-        <v>1522</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13">
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>41.28623518599989</v>
+        <v>3.464201540000431</v>
       </c>
       <c r="D13" t="n">
-        <v>1522</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14">
@@ -626,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>44.24369197799979</v>
+        <v>3.789364733001094</v>
       </c>
       <c r="D14" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15">
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>47.41307807500016</v>
+        <v>4.023285042001589</v>
       </c>
       <c r="D15" t="n">
-        <v>1521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="16">
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>50.62672361400018</v>
+        <v>4.234114462001344</v>
       </c>
       <c r="D16" t="n">
-        <v>1508</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17">
@@ -668,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>52.61256314899993</v>
+        <v>4.503453794000961</v>
       </c>
       <c r="D17" t="n">
-        <v>1498</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18">
@@ -682,10 +682,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>56.60513288499988</v>
+        <v>4.778989618001106</v>
       </c>
       <c r="D18" t="n">
-        <v>1498</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19">
@@ -696,10 +696,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>58.93541356900005</v>
+        <v>5.064371575000223</v>
       </c>
       <c r="D19" t="n">
-        <v>1498</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20">
@@ -710,10 +710,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>63.43811887799984</v>
+        <v>5.346168648999992</v>
       </c>
       <c r="D20" t="n">
-        <v>1498</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21">
@@ -724,10 +724,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>67.18947185500019</v>
+        <v>5.614027116000216</v>
       </c>
       <c r="D21" t="n">
-        <v>1498</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22">
@@ -738,10 +738,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>69.51641313100026</v>
+        <v>5.904123733000233</v>
       </c>
       <c r="D22" t="n">
-        <v>1498</v>
+        <v>577</v>
       </c>
     </row>
     <row r="23">
@@ -752,10 +752,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>72.3048749780005</v>
+        <v>6.22096061999946</v>
       </c>
       <c r="D23" t="n">
-        <v>1498</v>
+        <v>577</v>
       </c>
     </row>
     <row r="24">
@@ -766,10 +766,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>75.42025823700033</v>
+        <v>6.430673222999758</v>
       </c>
       <c r="D24" t="n">
-        <v>1498</v>
+        <v>577</v>
       </c>
     </row>
     <row r="25">
@@ -780,10 +780,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>79.62479934300063</v>
+        <v>6.733408250000139</v>
       </c>
       <c r="D25" t="n">
-        <v>1498</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26">
@@ -794,10 +794,10 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>83.2875654240006</v>
+        <v>7.004373800999929</v>
       </c>
       <c r="D26" t="n">
-        <v>1498</v>
+        <v>577</v>
       </c>
     </row>
     <row r="27">
@@ -808,10 +808,10 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>87.32970033400034</v>
+        <v>7.219315147999623</v>
       </c>
       <c r="D27" t="n">
-        <v>1498</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28">
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>91.23592129500048</v>
+        <v>7.453073366998979</v>
       </c>
       <c r="D28" t="n">
-        <v>1498</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29">
@@ -836,10 +836,10 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>95.2565461650006</v>
+        <v>7.675324521998846</v>
       </c>
       <c r="D29" t="n">
-        <v>1498</v>
+        <v>577</v>
       </c>
     </row>
     <row r="30">
@@ -850,10 +850,10 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>97.83398363100059</v>
+        <v>7.929502804999174</v>
       </c>
       <c r="D30" t="n">
-        <v>1498</v>
+        <v>577</v>
       </c>
     </row>
     <row r="31">
@@ -864,10 +864,10 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>99.84282981100023</v>
+        <v>8.178984829999536</v>
       </c>
       <c r="D31" t="n">
-        <v>1498</v>
+        <v>577</v>
       </c>
     </row>
     <row r="32">
@@ -878,10 +878,10 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>102.1005798700003</v>
+        <v>8.455481757999223</v>
       </c>
       <c r="D32" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="33">
@@ -892,10 +892,10 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>104.5535334870001</v>
+        <v>8.749649498999133</v>
       </c>
       <c r="D33" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="34">
@@ -906,10 +906,10 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>107.1028652239997</v>
+        <v>9.050818088999222</v>
       </c>
       <c r="D34" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35">
@@ -920,10 +920,10 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>110.8292652129999</v>
+        <v>9.380362008999327</v>
       </c>
       <c r="D35" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="36">
@@ -934,10 +934,10 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>114.3476203949999</v>
+        <v>9.723154304999298</v>
       </c>
       <c r="D36" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="37">
@@ -948,10 +948,10 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>118.086819784</v>
+        <v>9.956881234998946</v>
       </c>
       <c r="D37" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="38">
@@ -962,10 +962,10 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>121.5406286169996</v>
+        <v>10.20934781899905</v>
       </c>
       <c r="D38" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="39">
@@ -976,10 +976,10 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>125.6674594179999</v>
+        <v>10.50482816299882</v>
       </c>
       <c r="D39" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="40">
@@ -990,10 +990,10 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>127.9393051729999</v>
+        <v>10.7522652359994</v>
       </c>
       <c r="D40" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="41">
@@ -1004,10 +1004,10 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>131.943448775</v>
+        <v>11.07113771700006</v>
       </c>
       <c r="D41" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="42">
@@ -1018,10 +1018,10 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>135.3929365610002</v>
+        <v>11.32322041800035</v>
       </c>
       <c r="D42" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="43">
@@ -1032,10 +1032,10 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>139.105316227</v>
+        <v>11.59692939900015</v>
       </c>
       <c r="D43" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="44">
@@ -1046,10 +1046,10 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>141.138034217</v>
+        <v>11.89025337900057</v>
       </c>
       <c r="D44" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="45">
@@ -1060,10 +1060,10 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>144.1578018639998</v>
+        <v>12.16030687900093</v>
       </c>
       <c r="D45" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="46">
@@ -1074,10 +1074,10 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>148.3543806949997</v>
+        <v>12.41482852500121</v>
       </c>
       <c r="D46" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="47">
@@ -1088,10 +1088,10 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>152.0509175249995</v>
+        <v>12.68738321800083</v>
       </c>
       <c r="D47" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="48">
@@ -1102,10 +1102,10 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>154.5868286889995</v>
+        <v>12.95783973300058</v>
       </c>
       <c r="D48" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="49">
@@ -1116,10 +1116,10 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>157.8426169039999</v>
+        <v>13.25405945300008</v>
       </c>
       <c r="D49" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="50">
@@ -1130,10 +1130,10 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>160.934058713</v>
+        <v>13.55707267199978</v>
       </c>
       <c r="D50" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="51">
@@ -1144,10 +1144,10 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>164.9363997169999</v>
+        <v>13.81542887399974</v>
       </c>
       <c r="D51" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="52">
@@ -1158,10 +1158,10 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>169.0864999739997</v>
+        <v>14.09527453899955</v>
       </c>
       <c r="D52" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="53">
@@ -1172,10 +1172,10 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>171.5271185889997</v>
+        <v>14.36802621699917</v>
       </c>
       <c r="D53" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="54">
@@ -1186,10 +1186,10 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>174.0525248879999</v>
+        <v>14.71013153199874</v>
       </c>
       <c r="D54" t="n">
-        <v>1498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="55">
@@ -1200,10 +1200,10 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>177.1241943989999</v>
+        <v>15.00907980199827</v>
       </c>
       <c r="D55" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="56">
@@ -1214,10 +1214,10 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>180.9888143199996</v>
+        <v>15.3241526089987</v>
       </c>
       <c r="D56" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57">
@@ -1228,10 +1228,10 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>184.6624428659993</v>
+        <v>15.63981328199861</v>
       </c>
       <c r="D57" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="58">
@@ -1242,10 +1242,10 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>188.3617117099993</v>
+        <v>15.94601650999903</v>
       </c>
       <c r="D58" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="59">
@@ -1256,10 +1256,10 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>191.5094514819993</v>
+        <v>16.23868572299853</v>
       </c>
       <c r="D59" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="60">
@@ -1270,10 +1270,10 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>194.0805498929994</v>
+        <v>16.53201734199865</v>
       </c>
       <c r="D60" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="61">
@@ -1284,10 +1284,10 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>197.0255034479992</v>
+        <v>16.84269467499871</v>
       </c>
       <c r="D61" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="62">
@@ -1298,10 +1298,10 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>199.7693040569989</v>
+        <v>17.16881005199866</v>
       </c>
       <c r="D62" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="63">
@@ -1312,10 +1312,10 @@
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>202.6875137879988</v>
+        <v>17.50526807999904</v>
       </c>
       <c r="D63" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="64">
@@ -1326,10 +1326,10 @@
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>206.0560127169988</v>
+        <v>17.82318877399848</v>
       </c>
       <c r="D64" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="65">
@@ -1340,10 +1340,10 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>209.1371657209988</v>
+        <v>18.02873270599866</v>
       </c>
       <c r="D65" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="66">
@@ -1354,10 +1354,10 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>212.5769333909989</v>
+        <v>18.32216418599819</v>
       </c>
       <c r="D66" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="67">
@@ -1368,10 +1368,10 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>216.1508819459991</v>
+        <v>18.65482415799761</v>
       </c>
       <c r="D67" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="68">
@@ -1382,10 +1382,10 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>218.8226311469989</v>
+        <v>19.02490095799749</v>
       </c>
       <c r="D68" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="69">
@@ -1396,10 +1396,10 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>222.0382890879991</v>
+        <v>19.24213971099744</v>
       </c>
       <c r="D69" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="70">
@@ -1410,10 +1410,10 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>225.9775037579993</v>
+        <v>19.44963593199736</v>
       </c>
       <c r="D70" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="71">
@@ -1424,10 +1424,10 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>229.0127480089991</v>
+        <v>19.6750615719975</v>
       </c>
       <c r="D71" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="72">
@@ -1438,10 +1438,10 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>233.665343407999</v>
+        <v>19.91188028499801</v>
       </c>
       <c r="D72" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="73">
@@ -1452,10 +1452,10 @@
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>236.6409615139992</v>
+        <v>20.18099264899774</v>
       </c>
       <c r="D73" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="74">
@@ -1466,10 +1466,10 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>240.7474311849992</v>
+        <v>20.47665545199834</v>
       </c>
       <c r="D74" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="75">
@@ -1480,10 +1480,10 @@
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>244.2844174579991</v>
+        <v>20.8074658739979</v>
       </c>
       <c r="D75" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="76">
@@ -1494,10 +1494,10 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>247.6036357479989</v>
+        <v>21.12051412099754</v>
       </c>
       <c r="D76" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="77">
@@ -1508,10 +1508,10 @@
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>251.3439706569989</v>
+        <v>21.47140053699786</v>
       </c>
       <c r="D77" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="78">
@@ -1522,10 +1522,10 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>254.1271857039987</v>
+        <v>21.79288885399819</v>
       </c>
       <c r="D78" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="79">
@@ -1536,10 +1536,10 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>257.1581518129988</v>
+        <v>22.06171443499807</v>
       </c>
       <c r="D79" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="80">
@@ -1550,10 +1550,10 @@
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>260.8069992239989</v>
+        <v>22.4035437529983</v>
       </c>
       <c r="D80" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="81">
@@ -1564,10 +1564,10 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>264.8714727049987</v>
+        <v>22.73570441499851</v>
       </c>
       <c r="D81" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="82">
@@ -1578,10 +1578,10 @@
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>268.3492196099987</v>
+        <v>23.1049760249989</v>
       </c>
       <c r="D82" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="83">
@@ -1592,10 +1592,10 @@
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>272.0444559579992</v>
+        <v>23.41474986199864</v>
       </c>
       <c r="D83" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="84">
@@ -1606,10 +1606,10 @@
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>276.2552949399992</v>
+        <v>23.79148002899819</v>
       </c>
       <c r="D84" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="85">
@@ -1620,10 +1620,10 @@
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>280.1661343779992</v>
+        <v>24.07102835999831</v>
       </c>
       <c r="D85" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="86">
@@ -1634,10 +1634,10 @@
         <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>284.2988363769991</v>
+        <v>24.40388163999796</v>
       </c>
       <c r="D86" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="87">
@@ -1648,10 +1648,10 @@
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>288.3272995499992</v>
+        <v>24.74209303099815</v>
       </c>
       <c r="D87" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="88">
@@ -1662,10 +1662,10 @@
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>291.9659571959992</v>
+        <v>25.0560052439987</v>
       </c>
       <c r="D88" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="89">
@@ -1676,10 +1676,10 @@
         <v>88</v>
       </c>
       <c r="C89" t="n">
-        <v>295.1333197059994</v>
+        <v>25.35216512399893</v>
       </c>
       <c r="D89" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="90">
@@ -1690,10 +1690,10 @@
         <v>89</v>
       </c>
       <c r="C90" t="n">
-        <v>299.9662650679993</v>
+        <v>25.58005095599856</v>
       </c>
       <c r="D90" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="91">
@@ -1704,10 +1704,10 @@
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>303.383327564999</v>
+        <v>25.79389846499907</v>
       </c>
       <c r="D91" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="92">
@@ -1718,10 +1718,10 @@
         <v>91</v>
       </c>
       <c r="C92" t="n">
-        <v>306.6945032899994</v>
+        <v>26.00367598599951</v>
       </c>
       <c r="D92" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="93">
@@ -1732,10 +1732,10 @@
         <v>92</v>
       </c>
       <c r="C93" t="n">
-        <v>310.7373149369996</v>
+        <v>26.24559208699975</v>
       </c>
       <c r="D93" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="94">
@@ -1746,10 +1746,10 @@
         <v>93</v>
       </c>
       <c r="C94" t="n">
-        <v>314.3807708559993</v>
+        <v>26.45776138499969</v>
       </c>
       <c r="D94" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="95">
@@ -1760,10 +1760,10 @@
         <v>94</v>
       </c>
       <c r="C95" t="n">
-        <v>318.3531416029991</v>
+        <v>26.66479377799988</v>
       </c>
       <c r="D95" t="n">
-        <v>1497</v>
+        <v>574</v>
       </c>
     </row>
     <row r="96">
@@ -1774,10 +1774,10 @@
         <v>95</v>
       </c>
       <c r="C96" t="n">
-        <v>321.1378964829992</v>
+        <v>26.94157272299981</v>
       </c>
       <c r="D96" t="n">
-        <v>1497</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97">
@@ -1788,10 +1788,10 @@
         <v>96</v>
       </c>
       <c r="C97" t="n">
-        <v>324.7236975369992</v>
+        <v>27.21352504099923</v>
       </c>
       <c r="D97" t="n">
-        <v>1497</v>
+        <v>573</v>
       </c>
     </row>
     <row r="98">
@@ -1802,10 +1802,10 @@
         <v>97</v>
       </c>
       <c r="C98" t="n">
-        <v>327.3259531579988</v>
+        <v>27.54925208499935</v>
       </c>
       <c r="D98" t="n">
-        <v>1497</v>
+        <v>573</v>
       </c>
     </row>
     <row r="99">
@@ -1816,10 +1816,10 @@
         <v>98</v>
       </c>
       <c r="C99" t="n">
-        <v>330.0998370899988</v>
+        <v>27.85740688299938</v>
       </c>
       <c r="D99" t="n">
-        <v>1497</v>
+        <v>573</v>
       </c>
     </row>
     <row r="100">
@@ -1830,10 +1830,10 @@
         <v>99</v>
       </c>
       <c r="C100" t="n">
-        <v>333.5697537809988</v>
+        <v>28.13111532699986</v>
       </c>
       <c r="D100" t="n">
-        <v>1497</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101">
@@ -1844,10 +1844,10 @@
         <v>100</v>
       </c>
       <c r="C101" t="n">
-        <v>336.8236571809989</v>
+        <v>28.44403723100004</v>
       </c>
       <c r="D101" t="n">
-        <v>1497</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
